--- a/new_testdata2.xlsx
+++ b/new_testdata2.xlsx
@@ -394,10 +394,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>16.66666666666666</v>
+        <v>12.5</v>
       </c>
       <c r="B2">
-        <v>15.09433962264151</v>
+        <v>10.25641025641026</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -414,10 +414,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>41.50943396226415</v>
+        <v>28.2051282051282</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -434,10 +434,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="B4">
-        <v>43.39622641509434</v>
+        <v>29.48717948717949</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -454,16 +454,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>32.05128205128205</v>
       </c>
       <c r="C5">
-        <v>22.32142857142857</v>
+        <v>28.08988764044944</v>
       </c>
       <c r="D5">
-        <v>9.90990990990991</v>
+        <v>13.58024691358025</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12.5</v>
+        <v>15.73033707865168</v>
       </c>
       <c r="D6">
-        <v>22.52252252252252</v>
+        <v>30.8641975308642</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -500,10 +500,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>44.64285714285715</v>
+        <v>56.17977528089888</v>
       </c>
       <c r="D7">
-        <v>40.54054054054054</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -520,10 +520,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>20.53571428571428</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>27.02702702702703</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -546,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>39.63963963963964</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>45.65217391304348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -566,10 +566,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>29.72972972972973</v>
+        <v>49.25373134328358</v>
       </c>
       <c r="F10">
-        <v>21.73913043478261</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30.63063063063063</v>
+        <v>50.74626865671642</v>
       </c>
       <c r="F11">
-        <v>32.60869565217391</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/new_testdata2.xlsx
+++ b/new_testdata2.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -391,13 +391,31 @@
       <c r="F1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>10.25641025641026</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -411,13 +429,31 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0.1244045781371552</v>
+      </c>
+      <c r="H2">
+        <v>0.9826406370400775</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
-        <v>25</v>
+        <v>0.03708291682538347</v>
       </c>
       <c r="B3">
-        <v>28.2051282051282</v>
+        <v>0.0427953287245139</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -431,13 +467,31 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>29.48717948717949</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -451,19 +505,37 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>32.72627536024244</v>
+      </c>
+      <c r="J4">
+        <v>33.06626842723345</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
-        <v>25</v>
+        <v>4.105514763122162</v>
       </c>
       <c r="B5">
-        <v>32.05128205128205</v>
+        <v>8.023940643412423</v>
       </c>
       <c r="C5">
-        <v>28.08988764044944</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>13.58024691358025</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -471,8 +543,26 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>0</v>
       </c>
@@ -480,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15.73033707865168</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>30.8641975308642</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -491,8 +581,26 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>5.308046678850264</v>
+      </c>
+      <c r="H6">
+        <v>5.601476461478329</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>0</v>
       </c>
@@ -500,10 +608,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>56.17977528089888</v>
+        <v>0.7571449731147208</v>
       </c>
       <c r="D7">
-        <v>55.55555555555556</v>
+        <v>0.9625724567901733</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -511,8 +619,26 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>0</v>
       </c>
@@ -520,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.8999165948697907</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -531,8 +657,26 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>0</v>
       </c>
@@ -551,8 +695,26 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>8.642591779975234</v>
+      </c>
+      <c r="J9">
+        <v>7.377389821827624</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>0</v>
       </c>
@@ -560,19 +722,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2.033397566551004</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.286820936254986</v>
       </c>
       <c r="E10">
-        <v>49.25373134328358</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>0</v>
       </c>
@@ -586,10 +766,1928 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>50.74626865671642</v>
+        <v>0.1471096748118517</v>
       </c>
       <c r="F11">
-        <v>60</v>
+        <v>0.09947366426078569</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>4.223223794664877</v>
+      </c>
+      <c r="L12">
+        <v>4.511104823957952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2.790513681756166</v>
+      </c>
+      <c r="D13">
+        <v>4.329706352573461</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>3.003927808521584</v>
+      </c>
+      <c r="J14">
+        <v>1.968274023369803</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>7.709909981214076</v>
+      </c>
+      <c r="D15">
+        <v>6.176984643614591</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>97.07397628439421</v>
+      </c>
+      <c r="F16">
+        <v>96.42837207847253</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>0.3337307048134242</v>
+      </c>
+      <c r="B17">
+        <v>0.3438750152126752</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>0.1716303899124969</v>
+      </c>
+      <c r="B18">
+        <v>0.1570797786340439</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0.1604477056249856</v>
+      </c>
+      <c r="F19">
+        <v>0.4223544078636697</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1.0106539367926</v>
+      </c>
+      <c r="L20">
+        <v>0.977375002630857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.7125492390202296</v>
+      </c>
+      <c r="F21">
+        <v>0.8738084083154152</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0.932992847552697</v>
+      </c>
+      <c r="H22">
+        <v>0.9825969427612281</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>15.87253899987758</v>
+      </c>
+      <c r="D23">
+        <v>16.29876543376681</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>28.65000178822846</v>
+      </c>
+      <c r="D24">
+        <v>20.01772320894699</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.2595942112341648</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>7.509719343627427</v>
+      </c>
+      <c r="J26">
+        <v>8.916870955805498</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>26.39397507731725</v>
+      </c>
+      <c r="L27">
+        <v>25.13218077274742</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1.272324952445037</v>
+      </c>
+      <c r="L28">
+        <v>1.288829783217816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0.6705885591817142</v>
+      </c>
+      <c r="D29">
+        <v>0.6818435200903088</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>2.631393287445038</v>
+      </c>
+      <c r="L30">
+        <v>1.353331447187386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>15.93383739416571</v>
+      </c>
+      <c r="B31">
+        <v>8.972143512686515</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>3.296721320634614</v>
+      </c>
+      <c r="H32">
+        <v>3.51451250243754</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0.3055816778286164</v>
+      </c>
+      <c r="F33">
+        <v>0.4405359877905531</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>2.913435656065458</v>
+      </c>
+      <c r="B34">
+        <v>3.445121836173185</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>7.534757329001502</v>
+      </c>
+      <c r="L35">
+        <v>6.981223410883233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>29.82378251065734</v>
+      </c>
+      <c r="B36">
+        <v>28.84365004280024</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0.9518454411919376</v>
+      </c>
+      <c r="D37">
+        <v>0.886435992542878</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>4.580328172648608</v>
+      </c>
+      <c r="B38">
+        <v>3.269150509106485</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>16.53455750219723</v>
+      </c>
+      <c r="J39">
+        <v>18.69835379090232</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>10.6873025181645</v>
+      </c>
+      <c r="J40">
+        <v>8.109497208726548</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>-0.05414389480339585</v>
+      </c>
+      <c r="L41">
+        <v>0.05155548370237659</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0.4620209084231675</v>
+      </c>
+      <c r="F42">
+        <v>0.5206876296514746</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0.09167042693329973</v>
+      </c>
+      <c r="F43">
+        <v>0.05747788547295332</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>2.033487988000958</v>
+      </c>
+      <c r="D44">
+        <v>1.143891696724708</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0.09167314454348985</v>
+      </c>
+      <c r="F45">
+        <v>0.309940988371858</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>0.06356869551688762</v>
+      </c>
+      <c r="B46">
+        <v>0.3668054530397108</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>17.44386148457271</v>
+      </c>
+      <c r="J47">
+        <v>14.95888257761051</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>9.767542420213218</v>
+      </c>
+      <c r="D48">
+        <v>8.750992221692668</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>15.44819932127534</v>
+      </c>
+      <c r="L49">
+        <v>16.3249957745106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>13.67196179166602</v>
+      </c>
+      <c r="D50">
+        <v>10.86697111888473</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0.3925432373246199</v>
+      </c>
+      <c r="L51">
+        <v>0.41888830508181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>2.280801307318473</v>
+      </c>
+      <c r="H52">
+        <v>2.343060427277605</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0.4278333722313938</v>
+      </c>
+      <c r="F53">
+        <v>0.206639576334245</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>3.035446869064472</v>
+      </c>
+      <c r="J54">
+        <v>5.038613462025728</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>42.03708879627251</v>
+      </c>
+      <c r="B55">
+        <v>46.5354378802102</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0.4163173336344053</v>
+      </c>
+      <c r="J56">
+        <v>1.865849732498522</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0.1100142957166441</v>
+      </c>
+      <c r="F57">
+        <v>0.3543580430595399</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>88.0570332675068</v>
+      </c>
+      <c r="H58">
+        <v>86.57571302900521</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0.4171232704721108</v>
+      </c>
+      <c r="F59">
+        <v>0.2863513304069681</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>13.93155600290018</v>
+      </c>
+      <c r="D60">
+        <v>28.5972924181177</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>41.14707295853713</v>
+      </c>
+      <c r="L61">
+        <v>42.96051519608054</v>
       </c>
     </row>
   </sheetData>

--- a/new_testdata2.xlsx
+++ b/new_testdata2.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,10 +430,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.1244045781371552</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.9826406370400775</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,18 +442,18 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1735427119226257</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4191043763702654</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>0.03708291682538347</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0.0427953287245139</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2644460372154296</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.35402952365778</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -512,24 +512,24 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.72627536024244</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>33.06626842723345</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.385638222623379</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.9778791529581891</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>4.105514763122162</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>8.023940643412423</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2.97488563686306</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.289494588390176</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -582,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5.308046678850264</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>5.601476461478329</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,10 +594,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>5.164777939627022</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.98482447092498</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -608,10 +608,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.7571449731147208</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9625724567901733</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -632,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>7.272266023424316</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>4.513431745525934</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.8999165948697907</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.96767760100764</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.33341654641623</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -702,16 +702,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.642591779975234</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7.377389821827624</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>27.68296356525348</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>25.14514447360845</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.033397566551004</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1.286820936254986</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>39.11380226206305</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>42.98267512214798</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -766,10 +766,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1471096748118517</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.09947366426078569</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.6226210791404801</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.865849732498522</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -816,16 +816,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.639316513031779</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.038613462025728</v>
       </c>
       <c r="K12">
-        <v>4.223223794664877</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>4.511104823957952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -836,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.790513681756166</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>4.329706352573461</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.571323494546493</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.968274023369803</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.003927808521584</v>
+        <v>8.27556144976719</v>
       </c>
       <c r="J14">
-        <v>1.968274023369803</v>
+        <v>8.916870955805498</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.709909981214076</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>6.176984643614591</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>8.511835740741928</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.377389821827624</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>97.07397628439421</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>96.42837207847253</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>11.15996241563942</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.109497208726548</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,10 +982,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>0.3337307048134242</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>0.3438750152126752</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>20.64977164777899</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>14.95888257761051</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>0.1716303899124969</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>0.1570797786340439</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>21.87112668867043</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>18.69835379090232</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1070,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1604477056249856</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4223544078636697</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>22.69848097068329</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>33.06626842723345</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.4222366318254477</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.9923481590328036</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.0106539367926</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.977375002630857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1146,16 +1146,16 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7125492390202296</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8738084083154152</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.7037746599251754</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.366312778236024</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.932992847552697</v>
+        <v>4.644809487030747</v>
       </c>
       <c r="H22">
-        <v>0.9825969427612281</v>
+        <v>3.549390253434932</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>15.87253899987758</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>16.29876543376681</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>6.896991667266719</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.657065081836256</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>28.65000178822846</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>20.01772320894699</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>87.33218755395191</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>87.43488372745999</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1292,16 +1292,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2595942112341648</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.03809864712110639</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.3567609425795917</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.08890249003626782</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.4252183902787009</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>7.509719343627427</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>8.916870955805498</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.09524238273750128</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.4435232593774707</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1392,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>26.39397507731725</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>25.13218077274742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.1600007656997999</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.5242184089857995</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1.272324952445037</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>1.288829783217816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1444,16 +1444,16 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0.6705885591817142</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>0.6818435200903088</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.3714491042349933</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.2882930768633495</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.9870412508485481</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.8797336972882004</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1506,18 +1506,18 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>2.631393287445038</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1.353331447187386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>15.93383739416571</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>8.972143512686515</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>98.25926535932177</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>97.08225222462688</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1558,10 +1558,10 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>0.2992388439095395</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.9625724567901734</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>3.296721320634614</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>3.51451250243754</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1596,16 +1596,16 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>0.4103827450376586</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.3055816778286164</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.4405359877905531</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1628,16 +1628,16 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>2.913435656065458</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>3.445121836173185</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.7694419851931689</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.6818435200903089</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1.346523474088045</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1.286820936254987</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1696,24 +1696,24 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>7.534757329001502</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>6.981223410883233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>29.82378251065734</v>
+        <v>0</v>
       </c>
       <c r="B36">
-        <v>28.84365004280024</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1.795444468680544</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1.143891696724708</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0.9518454411919376</v>
+        <v>2.564806617310563</v>
       </c>
       <c r="D37">
-        <v>0.886435992542878</v>
+        <v>4.329706352573461</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1780,16 +1780,16 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>4.580328172648608</v>
+        <v>0</v>
       </c>
       <c r="B38">
-        <v>3.269150509106485</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>3.590888937361088</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.8864359925428781</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>8.771985349990661</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>6.176984643614592</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1842,10 +1842,10 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>16.53455750219723</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>18.69835379090232</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>8.848976309925538</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>28.5972924181177</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>10.6873025181645</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>8.109497208726548</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>10.62338384421605</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>8.75099222169267</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>-0.05414389480339585</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>0.05155548370237659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1938,16 +1938,16 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>14.42618183062388</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>16.29876543376681</v>
       </c>
       <c r="E42">
-        <v>0.4620209084231675</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.5206876296514746</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1976,16 +1976,16 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>16.92847641898799</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>10.86697111888473</v>
       </c>
       <c r="E43">
-        <v>0.09167042693329973</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.05747788547295332</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>2.033487988000958</v>
+        <v>29.62426917467527</v>
       </c>
       <c r="D44">
-        <v>1.143891696724708</v>
+        <v>20.01772320894699</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2046,10 +2046,10 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>0</v>
+        <v>0.2413350402456683</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.3675400741575188</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.09167314454348985</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.309940988371858</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2084,10 +2084,10 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>0.06356869551688762</v>
+        <v>0.3619971947444142</v>
       </c>
       <c r="B46">
-        <v>0.3668054530397108</v>
+        <v>0.3445637123025586</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2122,10 +2122,10 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>0</v>
+        <v>5.140664932818899</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>3.275697813628217</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>17.44386148457271</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>14.95888257761051</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -2160,16 +2160,16 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>0</v>
+        <v>6.033429662382592</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>8.04001062327734</v>
       </c>
       <c r="C48">
-        <v>9.767542420213218</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>8.750992221692668</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>0</v>
+        <v>6.083383622645102</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>3.452021567988243</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2228,24 +2228,24 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>15.44819932127534</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>16.3249957745106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>0</v>
+        <v>15.96549495923762</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>8.990112509716967</v>
       </c>
       <c r="C50">
-        <v>13.67196179166602</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>10.86697111888473</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>0</v>
+        <v>29.36190764247839</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>28.90141678061865</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2304,18 +2304,18 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>0.3925432373246199</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>0.41888830508181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>0</v>
+        <v>36.81178694544733</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>46.62863691831051</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>2.280801307318473</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>2.343060427277605</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2346,348 +2346,6 @@
       </c>
       <c r="L52">
         <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0.4278333722313938</v>
-      </c>
-      <c r="F53">
-        <v>0.206639576334245</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54">
-        <v>0</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>3.035446869064472</v>
-      </c>
-      <c r="J54">
-        <v>5.038613462025728</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55">
-        <v>42.03708879627251</v>
-      </c>
-      <c r="B55">
-        <v>46.5354378802102</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56">
-        <v>0</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0.4163173336344053</v>
-      </c>
-      <c r="J56">
-        <v>1.865849732498522</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57">
-        <v>0</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0.1100142957166441</v>
-      </c>
-      <c r="F57">
-        <v>0.3543580430595399</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58">
-        <v>0</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>88.0570332675068</v>
-      </c>
-      <c r="H58">
-        <v>86.57571302900521</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59">
-        <v>0</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0.4171232704721108</v>
-      </c>
-      <c r="F59">
-        <v>0.2863513304069681</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60">
-        <v>0</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>13.93155600290018</v>
-      </c>
-      <c r="D60">
-        <v>28.5972924181177</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61">
-        <v>0</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>41.14707295853713</v>
-      </c>
-      <c r="L61">
-        <v>42.96051519608054</v>
       </c>
     </row>
   </sheetData>

--- a/new_testdata2.xlsx
+++ b/new_testdata2.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1735427119226257</v>
+        <v>0.1079378390489469</v>
       </c>
       <c r="L2">
-        <v>0.4191043763702654</v>
+        <v>0.1535043825496529</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2644460372154296</v>
+        <v>0.374172624547877</v>
       </c>
       <c r="L3">
-        <v>1.35402952365778</v>
+        <v>0.976378065602359</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -518,10 +518,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.385638222623379</v>
+        <v>1.603576589510664</v>
       </c>
       <c r="L4">
-        <v>0.9778791529581891</v>
+        <v>1.287515157684257</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.97488563686306</v>
+        <v>7.497943846900745</v>
       </c>
       <c r="L5">
-        <v>1.289494588390176</v>
+        <v>11.89906692202696</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -594,10 +594,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5.164777939627022</v>
+        <v>32.52369006911409</v>
       </c>
       <c r="L6">
-        <v>6.98482447092498</v>
+        <v>41.41488961104042</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -632,10 +632,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.272266023424316</v>
+        <v>57.89267903087768</v>
       </c>
       <c r="L7">
-        <v>4.513431745525934</v>
+        <v>44.26864586109636</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.184267965643355</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.822497235578371</v>
       </c>
       <c r="K8">
-        <v>16.96767760100764</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>16.33341654641623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -702,16 +702,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.285994789407076</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.944907765451054</v>
       </c>
       <c r="K9">
-        <v>27.68296356525348</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>25.14514447360845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>21.16910711837128</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>18.47637730178205</v>
       </c>
       <c r="K10">
-        <v>39.11380226206305</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>42.98267512214798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6226210791404801</v>
+        <v>30.77003481970854</v>
       </c>
       <c r="J11">
-        <v>1.865849732498522</v>
+        <v>23.98166932766938</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.639316513031779</v>
+        <v>42.59059530686975</v>
       </c>
       <c r="J12">
-        <v>5.038613462025728</v>
+        <v>48.77454836951915</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -848,16 +848,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.6117226417100747</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.9923481590328036</v>
       </c>
       <c r="I13">
-        <v>4.571323494546493</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.968274023369803</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.254899374320547</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.366312778236024</v>
       </c>
       <c r="I14">
-        <v>8.27556144976719</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>8.916870955805498</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>11.13713360074891</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.206455335271189</v>
       </c>
       <c r="I15">
-        <v>8.511835740741928</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>7.377389821827624</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>86.99624438322047</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>87.43488372745999</v>
       </c>
       <c r="I16">
-        <v>11.15996241563942</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>8.109497208726548</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.1279829201320567</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.206639576334245</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.64977164777899</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>14.95888257761051</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.1891347413743457</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.8341903363961629</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.87112668867043</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>18.69835379090232</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1070,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.3626049955032413</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1.036828306569379</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>22.69848097068329</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>33.06626842723345</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.9191324734570594</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1.493969702227675</v>
       </c>
       <c r="G20">
-        <v>0.4222366318254477</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0.9923481590328036</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1146,16 +1146,16 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>98.40114486953331</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>96.42837207847253</v>
       </c>
       <c r="G21">
-        <v>0.7037746599251754</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>2.366312778236024</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.4949809264478487</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.9625724567901734</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.644809487030747</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3.549390253434932</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2.2425808919289</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1.143891696724708</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>6.896991667266719</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>5.657065081836256</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2.42441177505827</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.8864359925428781</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>87.33218755395191</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>87.43488372745999</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1292,16 +1292,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>12.41030342124077</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>9.432835741782979</v>
       </c>
       <c r="E25">
-        <v>0.03809864712110639</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3567609425795917</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1330,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>29.3215916081653</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>50.51258514071296</v>
       </c>
       <c r="E26">
-        <v>0.08890249003626782</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.4252183902787009</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1368,16 +1368,16 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>53.10613137715892</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>37.0616789714463</v>
       </c>
       <c r="E27">
-        <v>0.09524238273750128</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.4435232593774707</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>0</v>
+        <v>0.7081341019461803</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.710680468252386</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0.1600007656997999</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.5242184089857995</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1438,10 +1438,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>0</v>
+        <v>5.051194869393871</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>3.487917164897699</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1450,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0.3714491042349933</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.2882930768633495</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1476,10 +1476,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>0</v>
+        <v>5.223494426878387</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>3.269150509106485</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.9870412508485481</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.8797336972882004</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>0</v>
+        <v>39.67504763944971</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>46.69251765884425</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>98.25926535932177</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>97.08225222462688</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1552,16 +1552,16 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>0</v>
+        <v>49.34212896233184</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>45.83973419889918</v>
       </c>
       <c r="C32">
-        <v>0.2992388439095395</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>0.9625724567901734</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1585,766 +1585,6 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0.4103827450376586</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0.7694419851931689</v>
-      </c>
-      <c r="D34">
-        <v>0.6818435200903089</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>1.346523474088045</v>
-      </c>
-      <c r="D35">
-        <v>1.286820936254987</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36">
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>1.795444468680544</v>
-      </c>
-      <c r="D36">
-        <v>1.143891696724708</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>2.564806617310563</v>
-      </c>
-      <c r="D37">
-        <v>4.329706352573461</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38">
-        <v>0</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>3.590888937361088</v>
-      </c>
-      <c r="D38">
-        <v>0.8864359925428781</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39">
-        <v>0</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>8.771985349990661</v>
-      </c>
-      <c r="D39">
-        <v>6.176984643614592</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40">
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>8.848976309925538</v>
-      </c>
-      <c r="D40">
-        <v>28.5972924181177</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41">
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>10.62338384421605</v>
-      </c>
-      <c r="D41">
-        <v>8.75099222169267</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42">
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>14.42618183062388</v>
-      </c>
-      <c r="D42">
-        <v>16.29876543376681</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43">
-        <v>0</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>16.92847641898799</v>
-      </c>
-      <c r="D43">
-        <v>10.86697111888473</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44">
-        <v>0</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>29.62426917467527</v>
-      </c>
-      <c r="D44">
-        <v>20.01772320894699</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45">
-        <v>0.2413350402456683</v>
-      </c>
-      <c r="B45">
-        <v>0.3675400741575188</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46">
-        <v>0.3619971947444142</v>
-      </c>
-      <c r="B46">
-        <v>0.3445637123025586</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47">
-        <v>5.140664932818899</v>
-      </c>
-      <c r="B47">
-        <v>3.275697813628217</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48">
-        <v>6.033429662382592</v>
-      </c>
-      <c r="B48">
-        <v>8.04001062327734</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49">
-        <v>6.083383622645102</v>
-      </c>
-      <c r="B49">
-        <v>3.452021567988243</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50">
-        <v>15.96549495923762</v>
-      </c>
-      <c r="B50">
-        <v>8.990112509716967</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51">
-        <v>29.36190764247839</v>
-      </c>
-      <c r="B51">
-        <v>28.90141678061865</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52">
-        <v>36.81178694544733</v>
-      </c>
-      <c r="B52">
-        <v>46.62863691831051</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
         <v>0</v>
       </c>
     </row>

--- a/new_testdata2.xlsx
+++ b/new_testdata2.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1079378390489469</v>
+        <v>1.214592703493946</v>
       </c>
       <c r="L2">
-        <v>0.1535043825496529</v>
+        <v>0.9901361725166644</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.374172624547877</v>
+        <v>1.735187543374866</v>
       </c>
       <c r="L3">
-        <v>0.976378065602359</v>
+        <v>0.05222862173465702</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -518,10 +518,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.603576589510664</v>
+        <v>6.246675156149519</v>
       </c>
       <c r="L4">
-        <v>1.287515157684257</v>
+        <v>12.06673623032172</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.497943846900745</v>
+        <v>25.44800281765447</v>
       </c>
       <c r="L5">
-        <v>11.89906692202696</v>
+        <v>44.89243369919445</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -594,10 +594,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>32.52369006911409</v>
+        <v>65.3555417793272</v>
       </c>
       <c r="L6">
-        <v>41.41488961104042</v>
+        <v>41.99846527623251</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -626,16 +626,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.03560008961121</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.573268921648769</v>
       </c>
       <c r="K7">
-        <v>57.89267903087768</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>44.26864586109636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.184267965643355</v>
+        <v>25.44534055653992</v>
       </c>
       <c r="J8">
-        <v>6.822497235578371</v>
+        <v>30.13578360486293</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.285994789407076</v>
+        <v>72.51905935384887</v>
       </c>
       <c r="J9">
-        <v>1.944907765451054</v>
+        <v>61.2909474734883</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.279147246544477</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.390030198915288</v>
       </c>
       <c r="I10">
-        <v>21.16910711837128</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>18.47637730178205</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>7.035181881548559</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.298731122377513</v>
       </c>
       <c r="I11">
-        <v>30.77003481970854</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>23.98166932766938</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>91.68567087190695</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>88.3112386787072</v>
       </c>
       <c r="I12">
-        <v>42.59059530686975</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>48.77454836951915</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -842,16 +842,16 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.5893019404473664</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1.047733429509389</v>
       </c>
       <c r="G13">
-        <v>0.6117226417100747</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.9923481590328036</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1.193842363141901</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1.509682933789947</v>
       </c>
       <c r="G14">
-        <v>1.254899374320547</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>2.366312778236024</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>98.21685569641073</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>97.44258363670066</v>
       </c>
       <c r="G15">
-        <v>11.13713360074891</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>9.206455335271189</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.43542471695536</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1.165440795505581</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>86.99624438322047</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>87.43488372745999</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -988,16 +988,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>11.72300751764521</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>9.610535352476408</v>
       </c>
       <c r="E17">
-        <v>0.1279829201320567</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.206639576334245</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>27.98966499310021</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>51.4641618415415</v>
       </c>
       <c r="E18">
-        <v>0.1891347413743457</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8341903363961629</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1064,16 +1064,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>58.85190277229923</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>37.75986201047651</v>
       </c>
       <c r="E19">
-        <v>0.3626049955032413</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.036828306569379</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1096,10 +1096,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>0</v>
+        <v>1.030063678162815</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>3.487917164897699</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.9191324734570594</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.493969702227675</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1134,10 +1134,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>0</v>
+        <v>4.57388947977387</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>3.269150509106485</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1146,10 +1146,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>98.40114486953331</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>96.42837207847253</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>0</v>
+        <v>24.47550025971456</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>46.69251765884425</v>
       </c>
       <c r="C22">
-        <v>0.4949809264478487</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>0.9625724567901734</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>0</v>
+        <v>34.6913244343307</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>45.83973419889918</v>
       </c>
       <c r="C23">
-        <v>2.2425808919289</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1.143891696724708</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>0</v>
+        <v>35.22922214801806</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.710680468252386</v>
       </c>
       <c r="C24">
-        <v>2.42441177505827</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>0.8864359925428781</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1281,310 +1281,6 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>12.41030342124077</v>
-      </c>
-      <c r="D25">
-        <v>9.432835741782979</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>29.3215916081653</v>
-      </c>
-      <c r="D26">
-        <v>50.51258514071296</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>53.10613137715892</v>
-      </c>
-      <c r="D27">
-        <v>37.0616789714463</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
-        <v>0.7081341019461803</v>
-      </c>
-      <c r="B28">
-        <v>0.710680468252386</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
-        <v>5.051194869393871</v>
-      </c>
-      <c r="B29">
-        <v>3.487917164897699</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>5.223494426878387</v>
-      </c>
-      <c r="B30">
-        <v>3.269150509106485</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>39.67504763944971</v>
-      </c>
-      <c r="B31">
-        <v>46.69251765884425</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <v>49.34212896233184</v>
-      </c>
-      <c r="B32">
-        <v>45.83973419889918</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
         <v>0</v>
       </c>
     </row>
